--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il11</t>
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H2">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I2">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J2">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>87.34176584449509</v>
+        <v>17.93284516606467</v>
       </c>
       <c r="R2">
-        <v>786.0758926004559</v>
+        <v>161.395606494582</v>
       </c>
       <c r="S2">
-        <v>0.2528941912827554</v>
+        <v>0.03676905702056336</v>
       </c>
       <c r="T2">
-        <v>0.2528941912827553</v>
+        <v>0.03676905702056335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H3">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I3">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J3">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>126.3543003977813</v>
+        <v>20.59485952900267</v>
       </c>
       <c r="R3">
-        <v>1137.188703580032</v>
+        <v>185.353735761024</v>
       </c>
       <c r="S3">
-        <v>0.3658532467855895</v>
+        <v>0.04222718466255345</v>
       </c>
       <c r="T3">
-        <v>0.3658532467855894</v>
+        <v>0.04222718466255344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H4">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I4">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J4">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>15.17523015727511</v>
+        <v>3.112185190606222</v>
       </c>
       <c r="R4">
-        <v>136.577071415476</v>
+        <v>28.009666715456</v>
       </c>
       <c r="S4">
-        <v>0.04393920275194035</v>
+        <v>0.006381146643060264</v>
       </c>
       <c r="T4">
-        <v>0.04393920275194035</v>
+        <v>0.006381146643060261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H5">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I5">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J5">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>12.42479069664711</v>
+        <v>2.204308834528889</v>
       </c>
       <c r="R5">
-        <v>111.823116269824</v>
+        <v>19.83877951076</v>
       </c>
       <c r="S5">
-        <v>0.03597542784605968</v>
+        <v>0.004519659679050842</v>
       </c>
       <c r="T5">
-        <v>0.03597542784605967</v>
+        <v>0.004519659679050841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H6">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I6">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J6">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>17.10674053056244</v>
+        <v>1.785712927146444</v>
       </c>
       <c r="R6">
-        <v>153.960664775062</v>
+        <v>16.071416344318</v>
       </c>
       <c r="S6">
-        <v>0.04953180497475813</v>
+        <v>0.00366138110448056</v>
       </c>
       <c r="T6">
-        <v>0.04953180497475812</v>
+        <v>0.003661381104480559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H7">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I7">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J7">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>8.200990645953778</v>
+        <v>110.0222170444473</v>
       </c>
       <c r="R7">
-        <v>73.80891581358399</v>
+        <v>990.1999534000261</v>
       </c>
       <c r="S7">
-        <v>0.02374560300072797</v>
+        <v>0.22558680089936</v>
       </c>
       <c r="T7">
-        <v>0.02374560300072796</v>
+        <v>0.22558680089936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H8">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I8">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J8">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
-        <v>11.86408845320534</v>
+        <v>126.3543003977813</v>
       </c>
       <c r="R8">
-        <v>106.776796078848</v>
+        <v>1137.188703580032</v>
       </c>
       <c r="S8">
-        <v>0.03435193948359521</v>
+        <v>0.2590736959526738</v>
       </c>
       <c r="T8">
-        <v>0.03435193948359521</v>
+        <v>0.2590736959526737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H9">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I9">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J9">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>1.424884410873778</v>
+        <v>19.09398711428977</v>
       </c>
       <c r="R9">
-        <v>12.823959697864</v>
+        <v>171.845884028608</v>
       </c>
       <c r="S9">
-        <v>0.004125689322573284</v>
+        <v>0.0391498334176099</v>
       </c>
       <c r="T9">
-        <v>0.004125689322573283</v>
+        <v>0.03914983341760989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H10">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I10">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J10">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>1.166630778481778</v>
+        <v>13.52395243363111</v>
       </c>
       <c r="R10">
-        <v>10.499677006336</v>
+        <v>121.71557190268</v>
       </c>
       <c r="S10">
-        <v>0.003377927437086683</v>
+        <v>0.0277291736793985</v>
       </c>
       <c r="T10">
-        <v>0.003377927437086682</v>
+        <v>0.02772917367939849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H11">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I11">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J11">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>1.606244363363111</v>
+        <v>10.95576822474155</v>
       </c>
       <c r="R11">
-        <v>14.456199270268</v>
+        <v>98.60191402267401</v>
       </c>
       <c r="S11">
-        <v>0.00465080898408239</v>
+        <v>0.02246343303749159</v>
       </c>
       <c r="T11">
-        <v>0.00465080898408239</v>
+        <v>0.02246343303749159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H12">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I12">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J12">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>21.19405320761022</v>
+        <v>21.27668190385367</v>
       </c>
       <c r="R12">
-        <v>190.746478868492</v>
+        <v>191.490137134683</v>
       </c>
       <c r="S12">
-        <v>0.0613664367112185</v>
+        <v>0.04362517619968185</v>
       </c>
       <c r="T12">
-        <v>0.06136643671121847</v>
+        <v>0.04362517619968184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H13">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I13">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J13">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>30.66070098020266</v>
+        <v>24.43506710705067</v>
       </c>
       <c r="R13">
-        <v>275.946308821824</v>
+        <v>219.915603963456</v>
       </c>
       <c r="S13">
-        <v>0.0887766935277671</v>
+        <v>0.05010105019256141</v>
       </c>
       <c r="T13">
-        <v>0.08877669352776707</v>
+        <v>0.05010105019256138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H14">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I14">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J14">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>3.682369279820222</v>
+        <v>3.692496852184889</v>
       </c>
       <c r="R14">
-        <v>33.141323518382</v>
+        <v>33.232471669664</v>
       </c>
       <c r="S14">
-        <v>0.01066213617300355</v>
+        <v>0.00757100315365246</v>
       </c>
       <c r="T14">
-        <v>0.01066213617300355</v>
+        <v>0.007571003153652458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H15">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I15">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J15">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>3.014957077774222</v>
+        <v>2.615333900215556</v>
       </c>
       <c r="R15">
-        <v>27.134613699968</v>
+        <v>23.53800510194</v>
       </c>
       <c r="S15">
-        <v>0.008729673880116397</v>
+        <v>0.005362415189242445</v>
       </c>
       <c r="T15">
-        <v>0.008729673880116392</v>
+        <v>0.005362415189242443</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.586429</v>
+      </c>
+      <c r="I16">
+        <v>0.1110037429731708</v>
+      </c>
+      <c r="J16">
+        <v>0.1110037429731707</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N16">
+        <v>32.515723</v>
+      </c>
+      <c r="O16">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P16">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q16">
+        <v>2.118684769240778</v>
+      </c>
+      <c r="R16">
+        <v>19.068162923167</v>
+      </c>
+      <c r="S16">
+        <v>0.004344098238032619</v>
+      </c>
+      <c r="T16">
+        <v>0.004344098238032617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.729803</v>
+      </c>
+      <c r="I17">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J17">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>108.845309</v>
+      </c>
+      <c r="N17">
+        <v>326.535927</v>
+      </c>
+      <c r="O17">
+        <v>0.3930063530400584</v>
+      </c>
+      <c r="P17">
+        <v>0.3930063530400583</v>
+      </c>
+      <c r="Q17">
+        <v>26.47854434804233</v>
+      </c>
+      <c r="R17">
+        <v>238.306899132381</v>
+      </c>
+      <c r="S17">
+        <v>0.05429094479648246</v>
+      </c>
+      <c r="T17">
+        <v>0.05429094479648245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.729803</v>
+      </c>
+      <c r="I18">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J18">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.002688</v>
+      </c>
+      <c r="N18">
+        <v>375.008064</v>
+      </c>
+      <c r="O18">
+        <v>0.4513455929560021</v>
+      </c>
+      <c r="P18">
+        <v>0.451345592956002</v>
+      </c>
+      <c r="Q18">
+        <v>30.40911223682133</v>
+      </c>
+      <c r="R18">
+        <v>273.682010131392</v>
+      </c>
+      <c r="S18">
+        <v>0.06235008284665644</v>
+      </c>
+      <c r="T18">
+        <v>0.06235008284665643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.729803</v>
+      </c>
+      <c r="I19">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J19">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.88973866666667</v>
+      </c>
+      <c r="N19">
+        <v>56.669216</v>
+      </c>
+      <c r="O19">
+        <v>0.06820493571538706</v>
+      </c>
+      <c r="P19">
+        <v>0.06820493571538705</v>
+      </c>
+      <c r="Q19">
+        <v>4.595262649383111</v>
+      </c>
+      <c r="R19">
+        <v>41.357363844448</v>
+      </c>
+      <c r="S19">
+        <v>0.009422011555610357</v>
+      </c>
+      <c r="T19">
+        <v>0.009422011555610356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.729803</v>
+      </c>
+      <c r="I20">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J20">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.37928666666667</v>
+      </c>
+      <c r="N20">
+        <v>40.13786</v>
+      </c>
+      <c r="O20">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="P20">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="Q20">
+        <v>3.254747849064445</v>
+      </c>
+      <c r="R20">
+        <v>29.29273064158</v>
+      </c>
+      <c r="S20">
+        <v>0.006673453550821504</v>
+      </c>
+      <c r="T20">
+        <v>0.006673453550821503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2452803333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.735841</v>
-      </c>
-      <c r="I16">
-        <v>0.1815541581308316</v>
-      </c>
-      <c r="J16">
-        <v>0.1815541581308316</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.92374966666667</v>
-      </c>
-      <c r="N16">
-        <v>50.771249</v>
-      </c>
-      <c r="O16">
-        <v>0.06620183179756665</v>
-      </c>
-      <c r="P16">
-        <v>0.06620183179756664</v>
-      </c>
-      <c r="Q16">
-        <v>4.151062959489889</v>
-      </c>
-      <c r="R16">
-        <v>37.359566635409</v>
-      </c>
-      <c r="S16">
-        <v>0.01201921783872613</v>
-      </c>
-      <c r="T16">
-        <v>0.01201921783872613</v>
+      <c r="G21">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.729803</v>
+      </c>
+      <c r="I21">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J21">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N21">
+        <v>32.515723</v>
+      </c>
+      <c r="O21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q21">
+        <v>2.636674688063222</v>
+      </c>
+      <c r="R21">
+        <v>23.730072192569</v>
+      </c>
+      <c r="S21">
+        <v>0.00540617180666529</v>
+      </c>
+      <c r="T21">
+        <v>0.005406171806665289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.44003</v>
+      </c>
+      <c r="I22">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J22">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>108.845309</v>
+      </c>
+      <c r="N22">
+        <v>326.535927</v>
+      </c>
+      <c r="O22">
+        <v>0.3930063530400584</v>
+      </c>
+      <c r="P22">
+        <v>0.3930063530400583</v>
+      </c>
+      <c r="Q22">
+        <v>15.96506710642333</v>
+      </c>
+      <c r="R22">
+        <v>143.68560395781</v>
+      </c>
+      <c r="S22">
+        <v>0.03273437412397068</v>
+      </c>
+      <c r="T22">
+        <v>0.03273437412397068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.44003</v>
+      </c>
+      <c r="I23">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J23">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.002688</v>
+      </c>
+      <c r="N23">
+        <v>375.008064</v>
+      </c>
+      <c r="O23">
+        <v>0.4513455929560021</v>
+      </c>
+      <c r="P23">
+        <v>0.451345592956002</v>
+      </c>
+      <c r="Q23">
+        <v>18.33497760021333</v>
+      </c>
+      <c r="R23">
+        <v>165.01479840192</v>
+      </c>
+      <c r="S23">
+        <v>0.03759357930155704</v>
+      </c>
+      <c r="T23">
+        <v>0.03759357930155703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.44003</v>
+      </c>
+      <c r="I24">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J24">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.88973866666667</v>
+      </c>
+      <c r="N24">
+        <v>56.669216</v>
+      </c>
+      <c r="O24">
+        <v>0.06820493571538706</v>
+      </c>
+      <c r="P24">
+        <v>0.06820493571538705</v>
+      </c>
+      <c r="Q24">
+        <v>2.770683901831111</v>
+      </c>
+      <c r="R24">
+        <v>24.93615511648</v>
+      </c>
+      <c r="S24">
+        <v>0.005680940945454082</v>
+      </c>
+      <c r="T24">
+        <v>0.005680940945454081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.44003</v>
+      </c>
+      <c r="I25">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J25">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.37928666666667</v>
+      </c>
+      <c r="N25">
+        <v>40.13786</v>
+      </c>
+      <c r="O25">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="P25">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="Q25">
+        <v>1.962429170644444</v>
+      </c>
+      <c r="R25">
+        <v>17.6618625358</v>
+      </c>
+      <c r="S25">
+        <v>0.004023715668431051</v>
+      </c>
+      <c r="T25">
+        <v>0.004023715668431051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.44003</v>
+      </c>
+      <c r="I26">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J26">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N26">
+        <v>32.515723</v>
+      </c>
+      <c r="O26">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P26">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q26">
+        <v>1.589765954632222</v>
+      </c>
+      <c r="R26">
+        <v>14.30789359169</v>
+      </c>
+      <c r="S26">
+        <v>0.003259616334938233</v>
+      </c>
+      <c r="T26">
+        <v>0.003259616334938232</v>
       </c>
     </row>
   </sheetData>
